--- a/LecturaArchivosCategoriatest.xlsx
+++ b/LecturaArchivosCategoriatest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Cuenta</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>PEN</t>
-  </si>
-  <si>
-    <t>hola</t>
   </si>
   <si>
     <t>FieldName3</t>
@@ -426,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,41 +436,35 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -483,41 +474,35 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1222</v>
-      </c>
-      <c r="D2">
-        <v>1222</v>
-      </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -527,121 +512,35 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1222</v>
-      </c>
-      <c r="D3">
-        <v>1222</v>
-      </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="C4">
-        <v>1222</v>
-      </c>
-      <c r="D4">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="C5">
-        <v>1222</v>
-      </c>
-      <c r="D5">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="C6">
-        <v>1222</v>
-      </c>
-      <c r="D6">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="C7">
-        <v>1222</v>
-      </c>
-      <c r="D7">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="C8">
-        <v>1222</v>
-      </c>
-      <c r="D8">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="C9">
-        <v>1222</v>
-      </c>
-      <c r="D9">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="C10">
-        <v>1222</v>
-      </c>
-      <c r="D10">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="C11">
-        <v>1222</v>
-      </c>
-      <c r="D11">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="C12">
-        <v>1222</v>
-      </c>
-      <c r="D12">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="C13">
-        <v>1222</v>
-      </c>
-      <c r="D13">
-        <v>1222</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
